--- a/5/4/Moneda extranjera 2004 a 2021 - Mensual.xlsx
+++ b/5/4/Moneda extranjera 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5405,6 +5408,29 @@
         <v>15414</v>
       </c>
     </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211">
+        <v>2395184</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>53306</v>
+      </c>
+      <c r="F211">
+        <v>2323987</v>
+      </c>
+      <c r="G211">
+        <v>17891</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/4/Moneda extranjera 2004 a 2021 - Mensual.xlsx
+++ b/5/4/Moneda extranjera 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5431,6 +5434,29 @@
         <v>17891</v>
       </c>
     </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212">
+        <v>2450676</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>104219</v>
+      </c>
+      <c r="F212">
+        <v>2330080</v>
+      </c>
+      <c r="G212">
+        <v>16377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/4/Moneda extranjera 2004 a 2021 - Mensual.xlsx
+++ b/5/4/Moneda extranjera 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5457,6 +5460,29 @@
         <v>16377</v>
       </c>
     </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213">
+        <v>2219061</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>84480</v>
+      </c>
+      <c r="F213">
+        <v>2117793</v>
+      </c>
+      <c r="G213">
+        <v>16789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
